--- a/nodes_source_analyses/energy/energy_hydrogen_biomass_gasification_ccs.converter.xlsx
+++ b/nodes_source_analyses/energy/energy_hydrogen_biomass_gasification_ccs.converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3494D2-05FB-1840-93ED-F95252C926C5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB44827-8679-D840-9CC2-486221F98B3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-10340" windowWidth="25600" windowHeight="26800" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -47,10 +47,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -60,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="183">
   <si>
     <t>Source</t>
   </si>
@@ -677,6 +683,9 @@
   </si>
   <si>
     <t>There is a power plant that runs on hydrogen and when this hydrogen is produced with electricity…….</t>
+  </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
   </si>
 </sst>
 </file>
@@ -1707,7 +1716,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1969,6 +1978,7 @@
     <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="459">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3278,12 +3288,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="31" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="22" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="22" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="22"/>
+    <col min="1" max="1" width="3.42578125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="22" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="29" customFormat="1">
@@ -3458,21 +3468,21 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="35" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="35" customWidth="1"/>
     <col min="3" max="3" width="36" style="35" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="35" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="35" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="35" customWidth="1"/>
     <col min="7" max="7" width="34" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="35"/>
+    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -3948,14 +3958,16 @@
         <v>82</v>
       </c>
       <c r="E29" s="130">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F29" s="123"/>
       <c r="G29" s="123" t="s">
         <v>83</v>
       </c>
       <c r="H29" s="123"/>
-      <c r="I29" s="125"/>
+      <c r="I29" s="181" t="s">
+        <v>182</v>
+      </c>
       <c r="J29" s="129"/>
     </row>
     <row r="30" spans="1:11" ht="17" thickBot="1">
@@ -4221,29 +4233,29 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="42" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="42" customWidth="1"/>
     <col min="2" max="2" width="3" style="42" customWidth="1"/>
-    <col min="3" max="3" width="34.5" style="42" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="42" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="42" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="42" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="42" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="42" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="42" customWidth="1"/>
     <col min="7" max="7" width="3" style="42" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" style="42" customWidth="1"/>
-    <col min="9" max="9" width="2.5" style="42" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="42" customWidth="1"/>
-    <col min="11" max="11" width="2.5" style="42" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" style="42" customWidth="1"/>
-    <col min="13" max="13" width="2.5" style="42" customWidth="1"/>
-    <col min="14" max="14" width="14.83203125" style="42" customWidth="1"/>
-    <col min="15" max="15" width="2.1640625" style="42" customWidth="1"/>
-    <col min="16" max="16" width="9.1640625" style="42" customWidth="1"/>
-    <col min="17" max="17" width="23.5" style="42" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="42" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="42" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="42" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" style="42" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="42" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" style="42" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="42" customWidth="1"/>
+    <col min="15" max="15" width="2.140625" style="42" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="42" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="42" customWidth="1"/>
     <col min="18" max="18" width="11" style="42" customWidth="1"/>
-    <col min="19" max="19" width="2.5" style="42" customWidth="1"/>
-    <col min="20" max="20" width="22.5" style="42" customWidth="1"/>
-    <col min="21" max="16384" width="10.6640625" style="42"/>
+    <col min="19" max="19" width="2.42578125" style="42" customWidth="1"/>
+    <col min="20" max="20" width="22.42578125" style="42" customWidth="1"/>
+    <col min="21" max="16384" width="10.7109375" style="42"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="17" thickBot="1"/>
@@ -5123,18 +5135,18 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="60" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="60" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="60" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="60" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="60" customWidth="1"/>
-    <col min="6" max="7" width="13.1640625" style="60" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="65" customWidth="1"/>
-    <col min="9" max="9" width="31.5" style="65" customWidth="1"/>
-    <col min="10" max="10" width="98.5" style="60" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="60"/>
+    <col min="1" max="1" width="3.42578125" style="60" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="60" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="60" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="60" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="60" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="60" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="65" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" style="65" customWidth="1"/>
+    <col min="10" max="10" width="98.42578125" style="60" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="60"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1"/>
@@ -5420,18 +5432,18 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="70" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="70" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="70" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="70" customWidth="1"/>
     <col min="4" max="4" width="4" style="70" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="70" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" style="70" customWidth="1"/>
-    <col min="7" max="12" width="10.6640625" style="70"/>
-    <col min="13" max="13" width="19.5" style="70" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="70" customWidth="1"/>
-    <col min="15" max="15" width="55.5" style="70" customWidth="1"/>
-    <col min="16" max="16384" width="10.6640625" style="70"/>
+    <col min="5" max="5" width="13.140625" style="70" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="70" customWidth="1"/>
+    <col min="7" max="12" width="10.7109375" style="70"/>
+    <col min="13" max="13" width="19.42578125" style="70" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="70" customWidth="1"/>
+    <col min="15" max="15" width="55.42578125" style="70" customWidth="1"/>
+    <col min="16" max="16384" width="10.7109375" style="70"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17" thickBot="1"/>
